--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0B2E97-CF44-4C96-A8DD-B4935F77990B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F127D-2A94-4626-836D-250B913A826B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57490" yWindow="10390" windowWidth="29020" windowHeight="15820" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -443,10 +443,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>radius_offset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>min_color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,6 +515,33 @@
   </si>
   <si>
     <t>c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_min</t>
+  </si>
+  <si>
+    <t>radius_offset_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with_shadow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -924,15 +947,15 @@
         <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
         <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -944,15 +967,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -969,22 +992,37 @@
         <v>109</v>
       </c>
       <c r="F1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>112</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>113</v>
       </c>
-      <c r="J1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>129</v>
+      </c>
+      <c r="M1" t="s">
+        <v>132</v>
+      </c>
+      <c r="N1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1004,19 +1042,34 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
         <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1035,11 +1088,23 @@
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
         <v>54</v>
       </c>
-      <c r="J4" t="s">
-        <v>129</v>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>134</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1060,13 +1125,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>120</v>
-      </c>
-      <c r="C1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1082,13 +1147,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" t="s">
         <v>122</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>123</v>
-      </c>
-      <c r="C4" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2121,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2076,7 +2141,7 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -2096,7 +2161,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -2116,7 +2181,7 @@
         <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8">
         <v>500</v>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434F127D-2A94-4626-836D-250B913A826B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D0F0E-AA5E-461C-93F7-C659B28477B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57490" yWindow="10390" windowWidth="29020" windowHeight="15820" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32550" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,22 +498,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tile1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,9 +507,6 @@
   </si>
   <si>
     <t>radius_offset_min</t>
-  </si>
-  <si>
-    <t>radius_offset_min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -542,6 +523,10 @@
   </si>
   <si>
     <t>with_shadow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,9 +869,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -894,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -902,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -910,7 +895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -918,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>66</v>
       </c>
@@ -926,7 +911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -934,7 +919,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -942,7 +927,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -950,7 +935,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -969,13 +954,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -992,10 +977,10 @@
         <v>109</v>
       </c>
       <c r="F1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" t="s">
         <v>131</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
       </c>
       <c r="H1" t="s">
         <v>110</v>
@@ -1010,19 +995,19 @@
         <v>113</v>
       </c>
       <c r="L1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="N1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>104</v>
       </c>
@@ -1089,19 +1074,19 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -1121,9 +1106,9 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>118</v>
       </c>
@@ -1134,7 +1119,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>121</v>
       </c>
@@ -1170,12 +1155,12 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>69</v>
       </c>
@@ -1201,7 +1186,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>76</v>
       </c>
@@ -1227,7 +1212,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>55</v>
       </c>
@@ -1253,7 +1238,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>57</v>
       </c>
@@ -1279,7 +1264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>58</v>
       </c>
@@ -1305,7 +1290,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>59</v>
       </c>
@@ -1331,7 +1316,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1357,7 +1342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>61</v>
       </c>
@@ -1383,7 +1368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>62</v>
       </c>
@@ -1409,7 +1394,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>63</v>
       </c>
@@ -1435,7 +1420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -1461,7 +1446,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>65</v>
       </c>
@@ -1501,9 +1486,9 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1520,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1582,12 +1567,12 @@
       <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1598,7 +1583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1620,7 +1605,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1646,9 +1631,9 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1674,7 +1659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1700,7 +1685,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>54</v>
       </c>
@@ -1738,9 +1723,9 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1766,7 +1751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1792,7 +1777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1815,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -1853,9 +1838,9 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -1869,7 +1854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>44</v>
       </c>
@@ -1897,7 +1882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +1896,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1925,7 +1910,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -1939,7 +1924,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -1953,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>49</v>
       </c>
@@ -1967,7 +1952,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -1981,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1995,7 +1980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
@@ -2009,7 +1994,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
@@ -2023,7 +2008,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>68</v>
       </c>
@@ -2047,13 +2032,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC868-1ED2-424F-9288-D2E545395294}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -2073,7 +2058,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2078,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2113,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2121,7 +2106,7 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2133,7 +2118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2141,7 +2126,7 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -2153,7 +2138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2161,7 +2146,7 @@
         <v>104</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -2173,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -2181,7 +2166,7 @@
         <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -2196,5 +2181,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0D0F0E-AA5E-461C-93F7-C659B28477B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715D0139-427F-4D5E-9434-7E0C91D0A3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32550" yWindow="4215" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="circle_tick_1" sheetId="7" r:id="rId7"/>
     <sheet name="all_colors" sheetId="8" r:id="rId8"/>
     <sheet name="value_on_tile_1" sheetId="9" r:id="rId9"/>
-    <sheet name="point_track_1" sheetId="10" r:id="rId10"/>
+    <sheet name="track_config_1" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>point_track_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -435,14 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>min_point_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_point_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>min_color</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,10 +450,6 @@
     <t>ref(all_colors, str)</t>
   </si>
   <si>
-    <t>point_track_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>font_info_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,31 +486,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>link_width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>radius_offset_min</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>link_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link_color_ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>with_shadow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>radius_offset_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -866,7 +850,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,18 +913,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -952,76 +936,67 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G1" t="s">
-        <v>131</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K1" t="s">
-        <v>113</v>
-      </c>
       <c r="L1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" t="s">
-        <v>127</v>
-      </c>
-      <c r="N1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -1039,62 +1014,48 @@
         <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G4">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="J4" t="s">
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O4">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1110,13 +1071,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1132,13 +1093,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1564,7 +1525,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1628,7 +1589,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2032,30 +1993,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC868-1ED2-424F-9288-D2E545395294}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2083,10 +2044,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" t="s">
-        <v>105</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2103,10 +2064,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" t="s">
-        <v>105</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2123,7 +2084,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
@@ -2143,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>55</v>
@@ -2163,7 +2124,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>55</v>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715D0139-427F-4D5E-9434-7E0C91D0A3B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F6D2B-6659-4903-B9BB-D8C311DC1C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="128">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,10 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>link_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +140,6 @@
   </si>
   <si>
     <t>to_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ref(all_colors,str)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -328,10 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>(255,255,255)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,9 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ref(all_colors, str)</t>
-  </si>
-  <si>
     <t>font_info_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +496,21 @@
   </si>
   <si>
     <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -847,10 +847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -889,42 +889,50 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -938,48 +946,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" t="s">
-        <v>110</v>
-      </c>
       <c r="L1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1005,16 +1013,16 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="L2" t="s">
         <v>21</v>
@@ -1022,13 +1030,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1043,10 +1051,10 @@
         <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -1071,13 +1079,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1093,13 +1101,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1121,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1123,62 +1131,62 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1193,18 +1201,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1219,18 +1227,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1245,18 +1253,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1271,18 +1279,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1297,18 +1305,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1323,18 +1331,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1349,18 +1357,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1375,18 +1383,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1401,18 +1409,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1427,10 +1435,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1444,32 +1452,32 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>25</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -1504,10 +1512,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
@@ -1563,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1571,10 +1579,10 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1589,7 +1597,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1634,10 +1642,10 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>22</v>
@@ -1648,7 +1656,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1660,7 +1668,7 @@
         <v>10000</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -1681,26 +1689,26 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
         <v>17</v>
@@ -1714,36 +1722,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1755,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1763,10 +1771,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1778,7 +1786,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1795,43 +1803,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="B2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1845,7 +1853,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1859,7 +1867,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1873,7 +1881,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1887,7 +1895,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1901,7 +1909,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1915,7 +1923,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1929,7 +1937,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1943,7 +1951,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1957,7 +1965,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1971,7 +1979,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
@@ -2001,22 +2009,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>99</v>
-      </c>
-      <c r="D1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2044,10 +2052,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2064,10 +2072,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2084,10 +2092,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -2104,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -2124,10 +2132,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8">
         <v>500</v>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9F6D2B-6659-4903-B9BB-D8C311DC1C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1AFB2-CB81-479F-A065-0AF2DBF3D8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -328,10 +328,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>circle_tick_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>with_shadow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>radius_offset_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -495,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>all_colors</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,6 +499,14 @@
   </si>
   <si>
     <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,42 +893,42 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" t="s">
         <v>82</v>
-      </c>
-      <c r="B7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
         <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" t="s">
         <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -944,53 +940,50 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E1" t="s">
         <v>102</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H1" t="s">
         <v>103</v>
       </c>
-      <c r="F1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>106</v>
       </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1013,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" t="s">
         <v>41</v>
@@ -1024,19 +1017,16 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1054,10 +1044,7 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1079,13 +1066,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1" t="s">
         <v>110</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>111</v>
-      </c>
-      <c r="C1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1101,13 +1088,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1520,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1702,7 +1689,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -1728,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1748,10 +1735,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1763,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -1771,10 +1758,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1786,7 +1773,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1803,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1828,13 +1815,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -2002,29 +1989,29 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2052,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>101</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2072,10 +2059,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
         <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>101</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2084,7 +2071,7 @@
         <v>300</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2092,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
         <v>53</v>
@@ -2112,7 +2099,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>53</v>
@@ -2132,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
         <v>53</v>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1AFB2-CB81-479F-A065-0AF2DBF3D8CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF28A6-5CF2-4A64-9E2A-5629B2127662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="148">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -507,6 +507,87 @@
   </si>
   <si>
     <t>fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -940,15 +1021,18 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>94</v>
       </c>
@@ -982,8 +1066,11 @@
       <c r="K1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1017,8 +1104,11 @@
       <c r="K2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>99</v>
       </c>
@@ -1035,7 +1125,7 @@
         <v>10</v>
       </c>
       <c r="F4">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>175</v>
@@ -1044,6 +1134,192 @@
         <v>52</v>
       </c>
       <c r="K4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>175</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>175</v>
+      </c>
+      <c r="J6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>175</v>
+      </c>
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>175</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>115</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>175</v>
+      </c>
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>175</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1108,7 +1384,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1986,10 +2262,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC868-1ED2-424F-9288-D2E545395294}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2134,6 +2410,606 @@
         <v>5</v>
       </c>
     </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10">
+        <v>200</v>
+      </c>
+      <c r="E10">
+        <v>300</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>400</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12">
+        <v>400</v>
+      </c>
+      <c r="E12">
+        <v>500</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13">
+        <v>500</v>
+      </c>
+      <c r="E13">
+        <v>600</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15">
+        <v>200</v>
+      </c>
+      <c r="E15">
+        <v>300</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>300</v>
+      </c>
+      <c r="E16">
+        <v>400</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="E18">
+        <v>600</v>
+      </c>
+      <c r="F18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D20">
+        <v>200</v>
+      </c>
+      <c r="E20">
+        <v>300</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>400</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22">
+        <v>400</v>
+      </c>
+      <c r="E22">
+        <v>500</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>500</v>
+      </c>
+      <c r="E23">
+        <v>600</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25">
+        <v>200</v>
+      </c>
+      <c r="E25">
+        <v>300</v>
+      </c>
+      <c r="F25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>300</v>
+      </c>
+      <c r="E26">
+        <v>400</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27">
+        <v>400</v>
+      </c>
+      <c r="E27">
+        <v>500</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>134</v>
+      </c>
+      <c r="C28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28">
+        <v>500</v>
+      </c>
+      <c r="E28">
+        <v>600</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>200</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>200</v>
+      </c>
+      <c r="E30">
+        <v>300</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>135</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31">
+        <v>300</v>
+      </c>
+      <c r="E31">
+        <v>400</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32">
+        <v>400</v>
+      </c>
+      <c r="E32">
+        <v>500</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33">
+        <v>600</v>
+      </c>
+      <c r="F33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35">
+        <v>200</v>
+      </c>
+      <c r="E35">
+        <v>300</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36">
+        <v>300</v>
+      </c>
+      <c r="E36">
+        <v>400</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37">
+        <v>400</v>
+      </c>
+      <c r="E37">
+        <v>500</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <v>600</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EF28A6-5CF2-4A64-9E2A-5629B2127662}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C163D0A-A58E-4115-9004-19CA153CFBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -588,6 +588,10 @@
   </si>
   <si>
     <t>tile6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_fan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1028,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1302,7 +1306,7 @@
         <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>0</v>

--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -3,21 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C163D0A-A58E-4115-9004-19CA153CFBDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9AB1E7-FC3E-497A-B806-2D4BA9CBF510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
     <sheet name="font_info_1" sheetId="11" r:id="rId2"/>
     <sheet name="tile_1" sheetId="4" r:id="rId3"/>
-    <sheet name="range_link_1" sheetId="6" r:id="rId4"/>
-    <sheet name="config_1" sheetId="2" r:id="rId5"/>
-    <sheet name="circle_1" sheetId="3" r:id="rId6"/>
-    <sheet name="circle_tick_1" sheetId="7" r:id="rId7"/>
-    <sheet name="all_colors" sheetId="8" r:id="rId8"/>
-    <sheet name="value_on_tile_1" sheetId="9" r:id="rId9"/>
-    <sheet name="track_config_1" sheetId="10" r:id="rId10"/>
+    <sheet name="config_1" sheetId="2" r:id="rId4"/>
+    <sheet name="circle_1" sheetId="3" r:id="rId5"/>
+    <sheet name="circle_tick_1" sheetId="7" r:id="rId6"/>
+    <sheet name="all_colors" sheetId="8" r:id="rId7"/>
+    <sheet name="value_on_tile_1" sheetId="9" r:id="rId8"/>
+    <sheet name="track_config_1" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="140">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,34 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>link_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_begin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to_pos_idx_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>tick_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -180,10 +151,6 @@
   </si>
   <si>
     <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -304,10 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -316,282 +279,283 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(int, 3)</t>
+    <t>(255,255,255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>circle_tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>red</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c0_1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 0, 0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_on_tile_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_on_tile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_data_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_color_ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_file_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>font_web_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:/Windows/Fonts/msyhl.ttc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>microsoft yahei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_offset_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>draw_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>track_config_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>colors</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>uint32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>histogram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fixed_size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tile6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_fan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> width</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>circle_tick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c0_1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
-  </si>
-  <si>
-    <t>value_on_tile_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_on_tile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_data_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min_color_ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_color_ref</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_file_path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>font_web_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:/Windows/Fonts/msyhl.ttc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>microsoft yahei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius_offset_min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius_offset_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>draw_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track_config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>track_config_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>all_colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>colors</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>histogram</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>p7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>link</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fixed_size</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>radius_point</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tile6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color_fan</t>
+    <t>list(uint32, 3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list(uint32, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,367 +934,56 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
-  <dimension ref="A1:L10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" t="s">
-        <v>103</v>
-      </c>
-      <c r="I1" t="s">
-        <v>104</v>
-      </c>
-      <c r="J1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>175</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>175</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>20</v>
-      </c>
-      <c r="G6">
-        <v>175</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>175</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>175</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>115</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>20</v>
-      </c>
-      <c r="G9">
-        <v>175</v>
-      </c>
-      <c r="J9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>137</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>175</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>52</v>
-      </c>
-      <c r="K10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1346,13 +999,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1368,13 +1021,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1388,7 +1041,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1398,62 +1051,62 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1468,18 +1121,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1494,18 +1147,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1520,18 +1173,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1546,18 +1199,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1572,18 +1225,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1598,18 +1251,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1624,18 +1277,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1650,18 +1303,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1676,18 +1329,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1702,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1715,87 +1368,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6EE92CD-4F45-4665-8ED1-B4A18F86433E}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EC94B35-9725-4AFF-93E2-75C8BA71255C}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1838,7 +1410,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1846,10 +1418,102 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>800</v>
+      </c>
+      <c r="C4">
+        <v>850</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,88 +1524,111 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDDCA0A-57A4-4235-89F4-63017FFAA865}">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4">
-        <v>800</v>
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>850</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>10000</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1952,121 +1639,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DAE8683-00A7-4798-B708-82A2E746ACEB}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5">
-        <v>1000</v>
-      </c>
-      <c r="D5">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5769B10-9484-4289-BE42-B80511001860}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -2078,16 +1650,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2095,18 +1667,18 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -2120,7 +1692,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -2134,7 +1706,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -2148,7 +1720,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -2162,7 +1734,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -2176,7 +1748,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -2190,7 +1762,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -2204,7 +1776,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -2218,7 +1790,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -2232,7 +1804,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -2246,7 +1818,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
@@ -2264,34 +1836,34 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B9CC868-1ED2-424F-9288-D2E545395294}">
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2305,10 +1877,10 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
@@ -2319,10 +1891,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -2339,10 +1911,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -2359,10 +1931,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -2379,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -2399,10 +1971,10 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -2419,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -2439,10 +2011,10 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2459,10 +2031,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>300</v>
@@ -2479,10 +2051,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>400</v>
@@ -2499,10 +2071,10 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -2519,10 +2091,10 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -2539,10 +2111,10 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2559,10 +2131,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D16">
         <v>300</v>
@@ -2579,10 +2151,10 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -2599,10 +2171,10 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>500</v>
@@ -2619,10 +2191,10 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -2639,10 +2211,10 @@
         <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2659,10 +2231,10 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D21">
         <v>300</v>
@@ -2679,10 +2251,10 @@
         <v>19</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -2699,10 +2271,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D23">
         <v>500</v>
@@ -2719,10 +2291,10 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -2739,10 +2311,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2759,10 +2331,10 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>300</v>
@@ -2779,10 +2351,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D27">
         <v>400</v>
@@ -2799,10 +2371,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2819,10 +2391,10 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2839,10 +2411,10 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C30" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -2859,10 +2431,10 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -2879,10 +2451,10 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D32">
         <v>400</v>
@@ -2899,10 +2471,10 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D33">
         <v>500</v>
@@ -2919,10 +2491,10 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C34" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2939,10 +2511,10 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D35">
         <v>200</v>
@@ -2959,10 +2531,10 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D36">
         <v>300</v>
@@ -2979,10 +2551,10 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D37">
         <v>400</v>
@@ -2999,10 +2571,10 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -3019,4 +2591,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2705F58-F18E-4B51-A8B4-E56720F2FC71}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>175</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>175</v>
+      </c>
+      <c r="J5" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" t="s">
+        <v>103</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>175</v>
+      </c>
+      <c r="J6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>175</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>175</v>
+      </c>
+      <c r="J8" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>20</v>
+      </c>
+      <c r="G9">
+        <v>175</v>
+      </c>
+      <c r="J9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>175</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data/point_track_test.xlsx
+++ b/data/point_track_test.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9AB1E7-FC3E-497A-B806-2D4BA9CBF510}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90EC44A-7516-4EA0-B92F-72150FED89E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21710" yWindow="-7890" windowWidth="21820" windowHeight="38020" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet_role" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="176">
   <si>
     <t>sheet_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,10 +159,6 @@
   </si>
   <si>
     <t>red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>list(int, 3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,10 +275,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(255,255,255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> width</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(0, 0, 0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>value_on_tile_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -447,13 +435,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>uint32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,16 +528,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
+    <t>uint</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["uint",3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["int", 3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[255,255,255]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>["uint", 3]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>list(uint32, 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>any</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0,0,0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>"7"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>"9"</t>
+  </si>
+  <si>
+    <t>"10"</t>
+  </si>
+  <si>
+    <t>"11"</t>
+  </si>
+  <si>
+    <t>"12"</t>
+  </si>
+  <si>
+    <t>"13"</t>
+  </si>
+  <si>
+    <t>"14"</t>
+  </si>
+  <si>
+    <t>"15"</t>
+  </si>
+  <si>
+    <t>"16"</t>
+  </si>
+  <si>
+    <t>"17"</t>
+  </si>
+  <si>
+    <t>"18"</t>
+  </si>
+  <si>
+    <t>"19"</t>
+  </si>
+  <si>
+    <t>"20"</t>
+  </si>
+  <si>
+    <t>"21"</t>
+  </si>
+  <si>
+    <t>"22"</t>
+  </si>
+  <si>
+    <t>"23"</t>
+  </si>
+  <si>
+    <t>"24"</t>
+  </si>
+  <si>
+    <t>"25"</t>
+  </si>
+  <si>
+    <t>"26"</t>
+  </si>
+  <si>
+    <t>"27"</t>
+  </si>
+  <si>
+    <t>"28"</t>
+  </si>
+  <si>
+    <t>"29"</t>
+  </si>
+  <si>
+    <t>"30"</t>
+  </si>
+  <si>
+    <t>"31"</t>
+  </si>
+  <si>
+    <t>"32"</t>
+  </si>
+  <si>
+    <t>"33"</t>
+  </si>
+  <si>
+    <t>"34"</t>
+  </si>
+  <si>
+    <t>"35"</t>
   </si>
 </sst>
 </file>
@@ -895,12 +1007,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J84" sqref="J84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -908,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -916,7 +1028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -924,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -932,52 +1044,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -995,20 +1107,20 @@
       <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1019,15 +1131,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1041,72 +1153,72 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>138</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>968</v>
@@ -1121,18 +1233,18 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2">
         <v>1026</v>
@@ -1147,18 +1259,18 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="2">
         <v>1021</v>
@@ -1173,18 +1285,18 @@
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>975</v>
@@ -1199,18 +1311,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>1012</v>
@@ -1225,18 +1337,18 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>1046</v>
@@ -1251,18 +1363,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>1021</v>
@@ -1277,18 +1389,18 @@
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>970</v>
@@ -1303,18 +1415,18 @@
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>947</v>
@@ -1329,18 +1441,18 @@
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>1014</v>
@@ -1355,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1372,15 +1484,15 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1391,18 +1503,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1410,18 +1522,18 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1436,12 +1548,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1467,21 +1579,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>111</v>
+      <c r="B2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -1493,9 +1605,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>800</v>
@@ -1528,12 +1640,12 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1541,7 +1653,7 @@
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D1" t="s">
         <v>23</v>
@@ -1559,7 +1671,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1567,16 +1679,16 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1585,12 +1697,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -1602,18 +1714,18 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -1625,7 +1737,7 @@
         <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -1643,12 +1755,12 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1662,23 +1774,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
         <v>15</v>
@@ -1690,9 +1802,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2">
         <v>50</v>
@@ -1704,9 +1816,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2">
         <v>77</v>
@@ -1718,9 +1830,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>70</v>
@@ -1732,9 +1844,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
         <v>105</v>
@@ -1746,9 +1858,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="2">
         <v>201</v>
@@ -1760,9 +1872,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="2">
         <v>148</v>
@@ -1774,9 +1886,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2">
         <v>207</v>
@@ -1788,9 +1900,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="2">
         <v>63</v>
@@ -1802,9 +1914,9 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2">
         <v>140</v>
@@ -1816,9 +1928,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2">
         <v>255</v>
@@ -1841,32 +1953,32 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1877,24 +1989,24 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="F2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -1906,15 +2018,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -1926,15 +2038,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>3</v>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>300</v>
@@ -1946,15 +2058,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>4</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7">
         <v>400</v>
@@ -1966,15 +2078,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5</v>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>500</v>
@@ -1986,15 +2098,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -2006,15 +2118,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D10">
         <v>200</v>
@@ -2026,15 +2138,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>300</v>
@@ -2046,15 +2158,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12">
         <v>400</v>
@@ -2066,15 +2178,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -2086,15 +2198,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>151</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D14">
         <v>100</v>
@@ -2106,15 +2218,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D15">
         <v>200</v>
@@ -2126,15 +2238,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>300</v>
@@ -2146,15 +2258,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>154</v>
       </c>
       <c r="B17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>400</v>
@@ -2166,15 +2278,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>155</v>
       </c>
       <c r="B18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>500</v>
@@ -2186,15 +2298,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>156</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D19">
         <v>100</v>
@@ -2206,15 +2318,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>17</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>157</v>
       </c>
       <c r="B20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D20">
         <v>200</v>
@@ -2226,15 +2338,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>18</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>158</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21">
         <v>300</v>
@@ -2246,15 +2358,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>19</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>159</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>400</v>
@@ -2266,15 +2378,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>20</v>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>500</v>
@@ -2286,15 +2398,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>21</v>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>161</v>
       </c>
       <c r="B24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D24">
         <v>100</v>
@@ -2306,15 +2418,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>22</v>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C25" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D25">
         <v>200</v>
@@ -2326,15 +2438,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>23</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26">
         <v>300</v>
@@ -2346,15 +2458,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>24</v>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D27">
         <v>400</v>
@@ -2366,15 +2478,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>25</v>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>165</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -2386,15 +2498,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>26</v>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>166</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -2406,15 +2518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>27</v>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>167</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D30">
         <v>200</v>
@@ -2426,15 +2538,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>28</v>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>168</v>
       </c>
       <c r="B31" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D31">
         <v>300</v>
@@ -2446,15 +2558,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>29</v>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>169</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32">
         <v>400</v>
@@ -2466,15 +2578,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>30</v>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>170</v>
       </c>
       <c r="B33" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>500</v>
@@ -2486,15 +2598,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>31</v>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2506,15 +2618,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>32</v>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>172</v>
       </c>
       <c r="B35" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D35">
         <v>200</v>
@@ -2526,15 +2638,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>33</v>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>173</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>300</v>
@@ -2546,15 +2658,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>34</v>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37">
         <v>400</v>
@@ -2566,15 +2678,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>35</v>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>175</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>500</v>
@@ -2598,53 +2710,53 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I1" t="s">
         <v>89</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>91</v>
       </c>
-      <c r="I1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" t="s">
-        <v>94</v>
-      </c>
       <c r="L1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2667,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
         <v>2</v>
@@ -2679,18 +2791,18 @@
         <v>2</v>
       </c>
       <c r="L2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -2705,21 +2817,21 @@
         <v>175</v>
       </c>
       <c r="J4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -2734,24 +2846,24 @@
         <v>175</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L5">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2766,21 +2878,21 @@
         <v>175</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -2795,24 +2907,24 @@
         <v>175</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L7">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2827,24 +2939,24 @@
         <v>175</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2859,24 +2971,24 @@
         <v>175</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2891,10 +3003,10 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
